--- a/biology/Botanique/Thuya_de_Corée/Thuya_de_Corée.xlsx
+++ b/biology/Botanique/Thuya_de_Corée/Thuya_de_Corée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thuya_de_Cor%C3%A9e</t>
+          <t>Thuya_de_Corée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thuja koraiensis
 Le thuya de Corée (Thuja koraiensis) est une espèce de thuya, conifère toujours vert de la famille des Cupressacées, originaire de Corée.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thuya_de_Cor%C3%A9e</t>
+          <t>Thuya_de_Corée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thuya de Corée est originaire de Corée du Nord et de Chine (Province de Jilin).
 Son habitat naturel se situe dans les monts Changbaï entre 700 et 1800 mètres d'altitude.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thuya_de_Cor%C3%A9e</t>
+          <t>Thuya_de_Corée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thuya de Corée est un arbuste ou un petit arbre de 8 à 9 mètres de haut.
 Le feuillage est constitué de rameaux aplatis et se distingue par ses couleurs contrastées, vert foncé dessus, blanc neigeux dessous.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thuya_de_Cor%C3%A9e</t>
+          <t>Thuya_de_Corée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est cultivée, notamment en Europe, comme arbre d'ornement.
 </t>
